--- a/data/GSCI/2023.xlsx
+++ b/data/GSCI/2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF6BFE-4ABC-4703-AB5F-CB95E50A0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{67CF6BFE-4ABC-4703-AB5F-CB95E50A0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DCAB2D2-9B29-471A-A292-6E0DA1BCCEFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSCI 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Data usage" sheetId="2" r:id="rId2"/>
+    <sheet name="sci" sheetId="3" r:id="rId2"/>
+    <sheet name="Data usage" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GSCI 2023'!$B$4:$P$185</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>Country</t>
   </si>
@@ -648,6 +649,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Global Sustainable Competitiveness Index  2023 </t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>sci</t>
   </si>
 </sst>
 </file>
@@ -1514,25 +1521,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:P185"/>
+      <selection pane="bottomRight" activeCell="P185" sqref="P5:P185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
-    <col min="5" max="16" width="11.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="8" customWidth="1"/>
+    <col min="5" max="16" width="11.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>204</v>
       </c>
@@ -1552,7 +1559,7 @@
       <c r="P2" s="27"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1592,7 @@
       </c>
       <c r="P3" s="36"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>72.227451140261607</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>71.187194006244951</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>68.631736823770794</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1827,7 @@
         <v>73.965598627363306</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1874,7 @@
         <v>72.993218380526869</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>72.366202049418149</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>75.972080838876209</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>67.258075992157842</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>68.503031218506308</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>69.718639350936172</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>63.86207188336266</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>65.24132331639062</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>72.218637043563604</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2290,7 +2297,7 @@
         <v>69.951835508867418</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>68.526172996714081</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>59.894058797041829</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2431,7 +2438,7 @@
         <v>67.488504206965828</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>65.161705158038671</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>71.271684944437311</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>71.667898693377808</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2619,7 +2626,7 @@
         <v>66.290675265404673</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -2666,7 +2673,7 @@
         <v>63.369870443992674</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>64.688885096703928</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2760,7 +2767,7 @@
         <v>60.565947099410863</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>67.027047649774701</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2854,7 +2861,7 @@
         <v>61.370789009536878</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>70.106713526624532</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>69.184063779034219</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>62.825213299921082</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>58.52958010066844</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>65.644105851788538</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>55.18018144304471</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3183,7 +3190,7 @@
         <v>65.515570680384528</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
@@ -3230,7 +3237,7 @@
         <v>53.919662012597122</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -3277,7 +3284,7 @@
         <v>65.118046498790576</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3331,7 @@
         <v>64.763753400206241</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>61.424517996111994</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3418,7 +3425,7 @@
         <v>57.402803949121576</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>59.694889335631814</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>61.671951502936757</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>55.6794232759271</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>79</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>62.979332926134532</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>62.735100113531452</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>66.231427583800425</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>61.224254000724436</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>54.109111028370727</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>203</v>
       </c>
@@ -3841,7 +3848,7 @@
         <v>52.00974929270555</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>51.703736519266783</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>54.700947978440816</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -3982,7 +3989,7 @@
         <v>53.378654670010988</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>48</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>50.502699095769344</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>105</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>55.474611673397781</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>52.807947855660402</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>94</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>59.206034224787246</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
@@ -4217,7 +4224,7 @@
         <v>57.880828214626469</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>58.019547760323206</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>89</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>48.012153322259721</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>53.591014800579295</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>158</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>54.407401271951706</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -4452,7 +4459,7 @@
         <v>64.646807613113182</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>56.855137089764824</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>195</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>59.043860910298569</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>100</v>
       </c>
@@ -4593,7 +4600,7 @@
         <v>51.02956561092607</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
@@ -4640,7 +4647,7 @@
         <v>58.691887911037369</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>28</v>
       </c>
@@ -4687,7 +4694,7 @@
         <v>49.93927930395926</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
@@ -4734,7 +4741,7 @@
         <v>57.625375901542355</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>54.881020238983965</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>59.443378422529534</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>67</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>58.220067230483274</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>62</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>58.904560573256376</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>54</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>56.093920058606443</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>198</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>50.307839522129122</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>58</v>
       </c>
@@ -5063,7 +5070,7 @@
         <v>44.762408307867688</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>54.903394462656877</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>184</v>
       </c>
@@ -5157,7 +5164,7 @@
         <v>50.639257692102156</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>76</v>
       </c>
@@ -5204,7 +5211,7 @@
         <v>53.387011326026105</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>115</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>45.647267463084169</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>188</v>
       </c>
@@ -5298,7 +5305,7 @@
         <v>54.5147795700763</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>71</v>
       </c>
@@ -5345,7 +5352,7 @@
         <v>46.765001838891834</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>53.694407340726194</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>106</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>49.439603537569774</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>155</v>
       </c>
@@ -5486,7 +5493,7 @@
         <v>59.105988947743135</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>75</v>
       </c>
@@ -5533,7 +5540,7 @@
         <v>42.492875473272107</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>120</v>
       </c>
@@ -5580,7 +5587,7 @@
         <v>59.335318354614763</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>63.777491626577969</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>46</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>54.05303542073748</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>169</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>51.559715444197771</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>90</v>
       </c>
@@ -5768,7 +5775,7 @@
         <v>53.704815283340437</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>69</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>59.034595017429425</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
@@ -5862,7 +5869,7 @@
         <v>48.358768824840297</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>136</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>44.654465526107337</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>139</v>
       </c>
@@ -5956,7 +5963,7 @@
         <v>47.595408352018595</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>126</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>51.975474211306725</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>101</v>
       </c>
@@ -6050,7 +6057,7 @@
         <v>34.907963820680116</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
@@ -6097,7 +6104,7 @@
         <v>43.546122791426839</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>104</v>
       </c>
@@ -6144,7 +6151,7 @@
         <v>34.621650755398058</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>129</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>45.782064366262546</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>97</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>40.04430332627804</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>95</v>
       </c>
@@ -6285,7 +6292,7 @@
         <v>49.800215582851635</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>147</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>44.569229958997695</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>55</v>
       </c>
@@ -6379,7 +6386,7 @@
         <v>51.809718462261763</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>85</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>44.077817876374311</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>132</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>52.490824205638624</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>45</v>
       </c>
@@ -6520,7 +6527,7 @@
         <v>37.771431253737717</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>88</v>
       </c>
@@ -6567,7 +6574,7 @@
         <v>47.671815890971871</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>44.109567618459067</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>82</v>
       </c>
@@ -6661,7 +6668,7 @@
         <v>39.674198539405708</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>61</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>51.775065145382058</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>143</v>
       </c>
@@ -6755,7 +6762,7 @@
         <v>47.356515710391029</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>80</v>
       </c>
@@ -6802,7 +6809,7 @@
         <v>47.297988781168122</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>48.741671897433001</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>161</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>43.589255552793986</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>73</v>
       </c>
@@ -6943,7 +6950,7 @@
         <v>47.047287076793204</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>114</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>48.23985212221983</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>63</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>36.424960144521165</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>140</v>
       </c>
@@ -7084,7 +7091,7 @@
         <v>52.982450609750494</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>194</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>50.893217005148543</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>98</v>
       </c>
@@ -7178,7 +7185,7 @@
         <v>47.041928285627137</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>133</v>
       </c>
@@ -7225,7 +7232,7 @@
         <v>48.407686230904901</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>131</v>
       </c>
@@ -7272,7 +7279,7 @@
         <v>50.674068108388411</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>113</v>
       </c>
@@ -7319,7 +7326,7 @@
         <v>55.167497187439466</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>91</v>
       </c>
@@ -7366,7 +7373,7 @@
         <v>33.265962185114766</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>46.861498985325618</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>81</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>48.495834844694848</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>39</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>51.699175776724211</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>137</v>
       </c>
@@ -7554,7 +7561,7 @@
         <v>42.556165092030881</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
         <v>135</v>
       </c>
@@ -7601,7 +7608,7 @@
         <v>44.199657572184236</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>70</v>
       </c>
@@ -7648,7 +7655,7 @@
         <v>47.653170707587485</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
         <v>134</v>
       </c>
@@ -7695,7 +7702,7 @@
         <v>46.617813098443833</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
         <v>124</v>
       </c>
@@ -7742,7 +7749,7 @@
         <v>51.440792035053619</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
         <v>130</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>42.486221983656868</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>151</v>
       </c>
@@ -7836,7 +7843,7 @@
         <v>46.316761841679046</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>125</v>
       </c>
@@ -7883,7 +7890,7 @@
         <v>42.964093060940392</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>108</v>
       </c>
@@ -7930,7 +7937,7 @@
         <v>39.694990547488196</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>118</v>
       </c>
@@ -7977,7 +7984,7 @@
         <v>43.671917151270463</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>107</v>
       </c>
@@ -8024,7 +8031,7 @@
         <v>45.202960520316651</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>119</v>
       </c>
@@ -8071,7 +8078,7 @@
         <v>44.702834650486167</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8125,7 @@
         <v>41.126668001753153</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>199</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>48.711937535865538</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>145</v>
       </c>
@@ -8212,7 +8219,7 @@
         <v>52.581940694961062</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
         <v>187</v>
       </c>
@@ -8259,7 +8266,7 @@
         <v>46.978407305527149</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
         <v>92</v>
       </c>
@@ -8306,7 +8313,7 @@
         <v>37.091366501517612</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
         <v>144</v>
       </c>
@@ -8353,7 +8360,7 @@
         <v>35.237927943050678</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
         <v>128</v>
       </c>
@@ -8400,7 +8407,7 @@
         <v>51.44282669710315</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
         <v>117</v>
       </c>
@@ -8447,7 +8454,7 @@
         <v>33.877041056262641</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>152</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>44.861576268169209</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>64</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>46.810245318414879</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
         <v>142</v>
       </c>
@@ -8588,7 +8595,7 @@
         <v>43.18095043553803</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
         <v>122</v>
       </c>
@@ -8635,7 +8642,7 @@
         <v>45.431312968687273</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>77</v>
       </c>
@@ -8682,7 +8689,7 @@
         <v>43.531037959069053</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>103</v>
       </c>
@@ -8729,7 +8736,7 @@
         <v>37.746548849556739</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>183</v>
       </c>
@@ -8776,7 +8783,7 @@
         <v>48.786327990140279</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
         <v>190</v>
       </c>
@@ -8823,7 +8830,7 @@
         <v>44.292002961582149</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>141</v>
       </c>
@@ -8870,7 +8877,7 @@
         <v>37.531969328692341</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
         <v>149</v>
       </c>
@@ -8917,7 +8924,7 @@
         <v>36.320924733773225</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>123</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>34.418365415500716</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>196</v>
       </c>
@@ -9011,7 +9018,7 @@
         <v>45.104542606715313</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>110</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>47.452648824012741</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>157</v>
       </c>
@@ -9105,7 +9112,7 @@
         <v>47.32680248310043</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
         <v>163</v>
       </c>
@@ -9152,7 +9159,7 @@
         <v>38.264275509347812</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>153</v>
       </c>
@@ -9199,7 +9206,7 @@
         <v>35.931402947984814</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
         <v>127</v>
       </c>
@@ -9246,7 +9253,7 @@
         <v>45.034485935161157</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
         <v>162</v>
       </c>
@@ -9293,7 +9300,7 @@
         <v>43.171791419805906</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
         <v>164</v>
       </c>
@@ -9340,7 +9347,7 @@
         <v>32.723804400622527</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
         <v>156</v>
       </c>
@@ -9387,7 +9394,7 @@
         <v>26.979190926897267</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>165</v>
       </c>
@@ -9434,7 +9441,7 @@
         <v>44.847449966446355</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
         <v>148</v>
       </c>
@@ -9481,7 +9488,7 @@
         <v>36.222436978262692</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
         <v>159</v>
       </c>
@@ -9528,7 +9535,7 @@
         <v>40.020276960587232</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
         <v>146</v>
       </c>
@@ -9575,7 +9582,7 @@
         <v>36.247644806628216</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
         <v>168</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>38.804341874242063</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>150</v>
       </c>
@@ -9669,7 +9676,7 @@
         <v>33.814959373897615</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>167</v>
       </c>
@@ -9716,7 +9723,7 @@
         <v>30.149343482310048</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
         <v>189</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>26.189351335134461</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>171</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>33.478254031897301</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>160</v>
       </c>
@@ -9857,7 +9864,7 @@
         <v>36.960004604612713</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>197</v>
       </c>
@@ -9904,7 +9911,7 @@
         <v>31.742337636615996</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>154</v>
       </c>
@@ -9951,7 +9958,7 @@
         <v>36.358320786199187</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>200</v>
       </c>
@@ -9998,7 +10005,7 @@
         <v>39.933491597240845</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>112</v>
       </c>
@@ -10045,7 +10052,7 @@
         <v>39.956158987286322</v>
       </c>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>202</v>
       </c>
@@ -10092,7 +10099,7 @@
         <v>37.728091359625232</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
@@ -10139,7 +10146,7 @@
         <v>32.453460331607381</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
         <v>173</v>
       </c>
@@ -10179,7 +10186,7 @@
         <v>75.972080838876209</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>172</v>
       </c>
@@ -10219,7 +10226,7 @@
         <v>51.28916914047349</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>174</v>
       </c>
@@ -10272,6 +10279,1480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E30E81F-CCDB-442A-A376-6A58F4621830}">
+  <dimension ref="A1:B182"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="L146" sqref="L146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="48">
+        <v>72.227451140261607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="48">
+        <v>71.187194006244951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48">
+        <v>68.631736823770794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="48">
+        <v>73.965598627363306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="48">
+        <v>72.993218380526869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="48">
+        <v>72.366202049418149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="48">
+        <v>75.972080838876209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="48">
+        <v>67.258075992157842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="48">
+        <v>68.503031218506308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="48">
+        <v>69.718639350936172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="48">
+        <v>63.86207188336266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="48">
+        <v>65.24132331639062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="48">
+        <v>72.218637043563604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="48">
+        <v>69.951835508867418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="48">
+        <v>68.526172996714081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="48">
+        <v>59.894058797041829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="48">
+        <v>67.488504206965828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="48">
+        <v>65.161705158038671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="48">
+        <v>71.271684944437311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="48">
+        <v>71.667898693377808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="48">
+        <v>66.290675265404673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="48">
+        <v>63.369870443992674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="48">
+        <v>64.688885096703928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="48">
+        <v>60.565947099410863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="48">
+        <v>67.027047649774701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="48">
+        <v>61.370789009536878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="48">
+        <v>70.106713526624532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="48">
+        <v>69.184063779034219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="48">
+        <v>62.825213299921082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="48">
+        <v>58.52958010066844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="48">
+        <v>65.644105851788538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="48">
+        <v>55.18018144304471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="48">
+        <v>65.515570680384528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="48">
+        <v>53.919662012597122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="48">
+        <v>65.118046498790576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="48">
+        <v>64.763753400206241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="48">
+        <v>61.424517996111994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="48">
+        <v>57.402803949121576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="48">
+        <v>59.694889335631814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="48">
+        <v>61.671951502936757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="48">
+        <v>55.6794232759271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="48">
+        <v>62.979332926134532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="48">
+        <v>62.735100113531452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="48">
+        <v>66.231427583800425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="48">
+        <v>61.224254000724436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="48">
+        <v>54.109111028370727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="48">
+        <v>52.00974929270555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="48">
+        <v>51.703736519266783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="48">
+        <v>54.700947978440816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="48">
+        <v>53.378654670010988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="48">
+        <v>50.502699095769344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="48">
+        <v>55.474611673397781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="48">
+        <v>52.807947855660402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="48">
+        <v>59.206034224787246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="48">
+        <v>57.880828214626469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="48">
+        <v>58.019547760323206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="48">
+        <v>48.012153322259721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="48">
+        <v>53.591014800579295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="48">
+        <v>54.407401271951706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="48">
+        <v>64.646807613113182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="48">
+        <v>56.855137089764824</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="48">
+        <v>59.043860910298569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="48">
+        <v>51.02956561092607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="48">
+        <v>58.691887911037369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="48">
+        <v>49.93927930395926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="48">
+        <v>57.625375901542355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="48">
+        <v>54.881020238983965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="48">
+        <v>59.443378422529534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="48">
+        <v>58.220067230483274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="48">
+        <v>58.904560573256376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="48">
+        <v>56.093920058606443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="48">
+        <v>50.307839522129122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="48">
+        <v>44.762408307867688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="48">
+        <v>54.903394462656877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="48">
+        <v>50.639257692102156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="48">
+        <v>53.387011326026105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="48">
+        <v>45.647267463084169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="48">
+        <v>54.5147795700763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="48">
+        <v>46.765001838891834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="48">
+        <v>53.694407340726194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="48">
+        <v>49.439603537569774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="48">
+        <v>59.105988947743135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="48">
+        <v>42.492875473272107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="48">
+        <v>59.335318354614763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="48">
+        <v>63.777491626577969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="48">
+        <v>54.05303542073748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="48">
+        <v>51.559715444197771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="48">
+        <v>53.704815283340437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="48">
+        <v>59.034595017429425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="48">
+        <v>48.358768824840297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="48">
+        <v>44.654465526107337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="48">
+        <v>47.595408352018595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="48">
+        <v>51.975474211306725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="48">
+        <v>34.907963820680116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="48">
+        <v>43.546122791426839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="48">
+        <v>34.621650755398058</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="48">
+        <v>45.782064366262546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="48">
+        <v>40.04430332627804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="48">
+        <v>49.800215582851635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="48">
+        <v>44.569229958997695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="48">
+        <v>51.809718462261763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="48">
+        <v>44.077817876374311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="48">
+        <v>52.490824205638624</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="48">
+        <v>37.771431253737717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="48">
+        <v>47.671815890971871</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="48">
+        <v>44.109567618459067</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="48">
+        <v>39.674198539405708</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" s="48">
+        <v>51.775065145382058</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="48">
+        <v>47.356515710391029</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="48">
+        <v>47.297988781168122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="48">
+        <v>48.741671897433001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="48">
+        <v>43.589255552793986</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="48">
+        <v>47.047287076793204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="48">
+        <v>48.23985212221983</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="48">
+        <v>36.424960144521165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="48">
+        <v>52.982450609750494</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" s="48">
+        <v>50.893217005148543</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="48">
+        <v>47.041928285627137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="48">
+        <v>48.407686230904901</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" s="48">
+        <v>50.674068108388411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="48">
+        <v>55.167497187439466</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="48">
+        <v>33.265962185114766</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="48">
+        <v>46.861498985325618</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="48">
+        <v>48.495834844694848</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="48">
+        <v>51.699175776724211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="48">
+        <v>42.556165092030881</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="48">
+        <v>44.199657572184236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="48">
+        <v>47.653170707587485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="48">
+        <v>46.617813098443833</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" s="48">
+        <v>51.440792035053619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="48">
+        <v>42.486221983656868</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" s="48">
+        <v>46.316761841679046</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="48">
+        <v>42.964093060940392</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="48">
+        <v>39.694990547488196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B136" s="48">
+        <v>43.671917151270463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="48">
+        <v>45.202960520316651</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="48">
+        <v>44.702834650486167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="48">
+        <v>41.126668001753153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B140" s="48">
+        <v>48.711937535865538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="48">
+        <v>52.581940694961062</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" s="48">
+        <v>46.978407305527149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" s="48">
+        <v>37.091366501517612</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="48">
+        <v>35.237927943050678</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="48">
+        <v>51.44282669710315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="48">
+        <v>33.877041056262641</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="48">
+        <v>44.861576268169209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="48">
+        <v>46.810245318414879</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="48">
+        <v>43.18095043553803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="48">
+        <v>45.431312968687273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" s="48">
+        <v>43.531037959069053</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" s="48">
+        <v>37.746548849556739</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" s="48">
+        <v>48.786327990140279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" s="48">
+        <v>44.292002961582149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="48">
+        <v>37.531969328692341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="48">
+        <v>36.320924733773225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="48">
+        <v>34.418365415500716</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="48">
+        <v>45.104542606715313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="48">
+        <v>47.452648824012741</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="48">
+        <v>47.32680248310043</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="48">
+        <v>38.264275509347812</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="48">
+        <v>35.931402947984814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B163" s="48">
+        <v>45.034485935161157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="48">
+        <v>43.171791419805906</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="48">
+        <v>32.723804400622527</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B166" s="48">
+        <v>26.979190926897267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="48">
+        <v>44.847449966446355</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="48">
+        <v>36.222436978262692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" s="48">
+        <v>40.020276960587232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="48">
+        <v>36.247644806628216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" s="48">
+        <v>38.804341874242063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" s="48">
+        <v>33.814959373897615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="48">
+        <v>30.149343482310048</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B174" s="48">
+        <v>26.189351335134461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="48">
+        <v>33.478254031897301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="48">
+        <v>36.960004604612713</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B177" s="48">
+        <v>31.742337636615996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="48">
+        <v>36.358320786199187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="48">
+        <v>39.933491597240845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B180" s="48">
+        <v>39.956158987286322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" s="48">
+        <v>37.728091359625232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="48">
+        <v>32.453460331607381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
@@ -10279,15 +11760,15 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>191</v>
       </c>
@@ -10305,7 +11786,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
@@ -10321,13 +11802,13 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>175</v>
       </c>
@@ -10335,7 +11816,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>176</v>
       </c>
@@ -10343,7 +11824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>182</v>
       </c>
@@ -10351,22 +11832,22 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="38" t="s">
         <v>177</v>
       </c>
